--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_UCRP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="FundingPolicy" sheetId="6" r:id="rId3"/>
     <sheet name="Assumptions" sheetId="3" r:id="rId4"/>
     <sheet name="SalaryGrowth" sheetId="11" r:id="rId5"/>
-    <sheet name="Demo_sum" sheetId="2" r:id="rId6"/>
-    <sheet name="Ret_sum" sheetId="12" r:id="rId7"/>
-    <sheet name="Ret_dec" sheetId="9" r:id="rId8"/>
-    <sheet name="Ret_cashout" sheetId="14" r:id="rId9"/>
-    <sheet name="Ret_bfactor" sheetId="13" r:id="rId10"/>
-    <sheet name="Term_sum" sheetId="15" r:id="rId11"/>
-    <sheet name="Term_dec" sheetId="8" r:id="rId12"/>
-    <sheet name="Disb_sum" sheetId="16" r:id="rId13"/>
-    <sheet name="Disb_dec" sheetId="10" r:id="rId14"/>
-    <sheet name="Death_sum" sheetId="17" r:id="rId15"/>
-    <sheet name="Death_dec" sheetId="5" r:id="rId16"/>
+    <sheet name="Init_amort" sheetId="18" r:id="rId6"/>
+    <sheet name="Demo_sum" sheetId="2" r:id="rId7"/>
+    <sheet name="Ret_sum" sheetId="12" r:id="rId8"/>
+    <sheet name="Ret_dec" sheetId="9" r:id="rId9"/>
+    <sheet name="Ret_cashout" sheetId="14" r:id="rId10"/>
+    <sheet name="Ret_bfactor" sheetId="13" r:id="rId11"/>
+    <sheet name="Term_sum" sheetId="15" r:id="rId12"/>
+    <sheet name="Term_dec" sheetId="8" r:id="rId13"/>
+    <sheet name="Disb_sum" sheetId="16" r:id="rId14"/>
+    <sheet name="Disb_dec" sheetId="10" r:id="rId15"/>
+    <sheet name="Death_sum" sheetId="17" r:id="rId16"/>
+    <sheet name="Death_dec" sheetId="5" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="186">
   <si>
     <t>ppd_id</t>
   </si>
@@ -1938,12 +1939,52 @@
   <si>
     <t>source</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date Established</t>
+  </si>
+  <si>
+    <t>Initial Years</t>
+  </si>
+  <si>
+    <t>Initial Amount</t>
+  </si>
+  <si>
+    <t>Annual Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years remaining </t>
+  </si>
+  <si>
+    <t>Outstanding Balance</t>
+  </si>
+  <si>
+    <t>Actuarial Loss**</t>
+  </si>
+  <si>
+    <t>Actuarial Loss</t>
+  </si>
+  <si>
+    <t>Change in Assumptions</t>
+  </si>
+  <si>
+    <t>Plan Amendment</t>
+  </si>
+  <si>
+    <t>Actuarial Gain</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -2064,7 +2105,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2205,6 +2246,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2423,6 +2467,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379898</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="266700"/>
+          <a:ext cx="8819048" cy="6495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2462,7 +2549,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2543,7 +2630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2792,6 +2879,49 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290951</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="3752851"/>
+          <a:ext cx="6901301" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2935,7 +3065,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2978,7 +3108,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3021,7 +3151,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3053,49 +3183,6 @@
         <a:xfrm>
           <a:off x="5086350" y="1200150"/>
           <a:ext cx="7010400" cy="4185751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>379898</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743450" y="266700"/>
-          <a:ext cx="8819048" cy="6495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3492,6 +3579,258 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>8</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>11</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>12</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>13</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0.11</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="32">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3780,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3920,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4202,7 +4541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4325,7 +4664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4508,7 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4601,7 +4940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4846,7 +5185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -5129,6 +5468,266 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="54">
+        <v>40360</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="55">
+        <v>5389886</v>
+      </c>
+      <c r="E4" s="55">
+        <v>416227</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4" s="55">
+        <v>5087113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="54">
+        <v>40725</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="56">
+        <v>905208</v>
+      </c>
+      <c r="E5" s="56">
+        <v>69867</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5" s="56">
+        <v>866050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="54">
+        <v>40725</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1513127</v>
+      </c>
+      <c r="E6" s="56">
+        <v>157872</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6" s="56">
+        <v>1253995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="54">
+        <v>40725</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="56">
+        <v>-59179</v>
+      </c>
+      <c r="E7" s="56">
+        <v>-6174</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7" s="56">
+        <v>-49044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="54">
+        <v>41091</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="56">
+        <v>2457582</v>
+      </c>
+      <c r="E8" s="56">
+        <v>189587</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8" s="56">
+        <v>2380797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="54">
+        <v>41456</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="56">
+        <v>1866282</v>
+      </c>
+      <c r="E9" s="56">
+        <v>143901</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1828830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="54">
+        <v>41821</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" s="56">
+        <v>-886657</v>
+      </c>
+      <c r="E10" s="56">
+        <v>-68334</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10" s="56">
+        <v>-878082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="54">
+        <v>42186</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="56">
+        <v>-1440456</v>
+      </c>
+      <c r="E11" s="56">
+        <v>-129251</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="56">
+        <v>-1440456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="54">
+        <v>42186</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="56">
+        <v>1850713</v>
+      </c>
+      <c r="E12" s="56">
+        <v>166063</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="56">
+        <v>1850713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="55">
+        <v>939758</v>
+      </c>
+      <c r="G13" s="55">
+        <v>10899916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
@@ -5187,7 +5786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -5400,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -6070,256 +6669,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32">
-        <v>0.42</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>8</v>
-      </c>
-      <c r="B8" s="32">
-        <v>0.35</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>9</v>
-      </c>
-      <c r="B9" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="32">
-        <v>0.42</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>10</v>
-      </c>
-      <c r="B10" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="32">
-        <v>0.42</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>11</v>
-      </c>
-      <c r="B11" s="32">
-        <v>0.18</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>12</v>
-      </c>
-      <c r="B12" s="32">
-        <v>0.16</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="32">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <v>13</v>
-      </c>
-      <c r="B13" s="32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C13" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
-        <v>14</v>
-      </c>
-      <c r="B14" s="32">
-        <v>0.12</v>
-      </c>
-      <c r="C14" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="32">
-        <v>0.11</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C16" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="32">
-        <v>0.04</v>
-      </c>
-      <c r="C18" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="32">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2216,6 +2216,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,9 +2249,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3270,6 +3270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3305,6 +3322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4124,7 +4158,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,12 +4170,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
@@ -4166,56 +4200,56 @@
       <c r="A3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="10" t="s">
         <v>88</v>
       </c>
@@ -4224,24 +4258,24 @@
       <c r="A12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4558,12 +4592,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
@@ -4591,10 +4625,10 @@
       <c r="B3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="11" t="s">
         <v>96</v>
       </c>
@@ -4606,12 +4640,12 @@
       <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="25" t="s">
         <v>98</v>
       </c>
@@ -4620,33 +4654,33 @@
       <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="23" t="s">
         <v>100</v>
       </c>
@@ -4669,7 +4703,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -4864,12 +4898,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
@@ -4899,12 +4933,12 @@
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="25" t="s">
         <v>104</v>
       </c>
@@ -4913,12 +4947,12 @@
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -5471,7 +5505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -5507,22 +5541,22 @@
       <c r="A4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="44">
         <v>40360</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="45">
         <v>5389886</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="45">
         <v>416227</v>
       </c>
       <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="45">
         <v>5087113</v>
       </c>
     </row>
@@ -5530,22 +5564,22 @@
       <c r="A5" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="44">
         <v>40725</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="46">
         <v>905208</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="46">
         <v>69867</v>
       </c>
       <c r="F5">
         <v>26</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="46">
         <v>866050</v>
       </c>
     </row>
@@ -5553,22 +5587,22 @@
       <c r="A6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="44">
         <v>40725</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="46">
         <v>1513127</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="46">
         <v>157872</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="46">
         <v>1253995</v>
       </c>
     </row>
@@ -5576,22 +5610,22 @@
       <c r="A7" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="44">
         <v>40725</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="46">
         <v>-59179</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="46">
         <v>-6174</v>
       </c>
       <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="46">
         <v>-49044</v>
       </c>
     </row>
@@ -5599,22 +5633,22 @@
       <c r="A8" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="44">
         <v>41091</v>
       </c>
       <c r="C8">
         <v>30</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="46">
         <v>2457582</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="46">
         <v>189587</v>
       </c>
       <c r="F8">
         <v>27</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="46">
         <v>2380797</v>
       </c>
     </row>
@@ -5622,22 +5656,22 @@
       <c r="A9" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="44">
         <v>41456</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="46">
         <v>1866282</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="46">
         <v>143901</v>
       </c>
       <c r="F9">
         <v>28</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="46">
         <v>1828830</v>
       </c>
     </row>
@@ -5645,22 +5679,22 @@
       <c r="A10" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="44">
         <v>41821</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="46">
         <v>-886657</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="46">
         <v>-68334</v>
       </c>
       <c r="F10">
         <v>29</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <v>-878082</v>
       </c>
     </row>
@@ -5668,22 +5702,22 @@
       <c r="A11" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="44">
         <v>42186</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="46">
         <v>-1440456</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="46">
         <v>-129251</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="46">
         <v>-1440456</v>
       </c>
     </row>
@@ -5691,22 +5725,22 @@
       <c r="A12" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="44">
         <v>42186</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="46">
         <v>1850713</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="46">
         <v>166063</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="46">
         <v>1850713</v>
       </c>
     </row>
@@ -5714,10 +5748,10 @@
       <c r="A13" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="45">
         <v>939758</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="45">
         <v>10899916</v>
       </c>
     </row>
@@ -5791,7 +5825,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5803,12 +5837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
@@ -5839,12 +5873,12 @@
       <c r="A4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="14" t="s">
         <v>76</v>
       </c>
@@ -5853,23 +5887,23 @@
       <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="5" t="s">
         <v>65</v>
       </c>
@@ -5878,12 +5912,12 @@
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -6003,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Death_sum" sheetId="17" r:id="rId16"/>
     <sheet name="Death_dec" sheetId="5" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4298,7 +4298,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,7 +5825,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,12 +622,6 @@
     <t>yos</t>
   </si>
   <si>
-    <t>qxt_safety</t>
-  </si>
-  <si>
-    <t>qxt_faculty</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -942,51 +936,6 @@
 -  Only for non-2013 tier members. 
 - age 50 w/ 5 yos at termination. 
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BRI beginning at age 50 or later</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, calculated using HAPC at termination date, adjusting for CPI changes (see Cost-of-Living Adjustment), and benefit formula in effect when benefits commence.
-2013 Tier benefit cannot commence earlier than age 55. HAPC for 2013 Tier and Modified 2013 Tier benefit is not adjusted for CPI changes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Assumption: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">deferred vested members are assumed to retire at age 60. </t>
-    </r>
   </si>
   <si>
     <t>- 5 yos,
@@ -1977,6 +1926,58 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>qxt.faculty</t>
+  </si>
+  <si>
+    <t>qxt.staff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BRI beginning at age 50 or later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, calculated using HAPC at termination date, adjusting for CPI changes (see Cost-of-Living Adjustment), and benefit formula in effect when benefits commence.
+-2013 Tier benefit cannot commence earlier than age 55. 
+-HAPC for 2013 Tier and Modified 2013 Tier benefit is not adjusted for CPI changes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assumption: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">deferred vested members are assumed to retire at age 60. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2988,16 +2989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3505201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1385401</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>471001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3014,7 +3015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14573251" y="133350"/>
+          <a:off x="10306051" y="914400"/>
           <a:ext cx="7010400" cy="4185751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3629,21 +3630,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,18 +3652,18 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="32">
         <v>0.45</v>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="32">
         <v>0.11</v>
@@ -3816,7 +3817,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="32">
         <v>7.0000000000000007E-2</v>
@@ -3830,7 +3831,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" s="32">
         <v>0.05</v>
@@ -3844,7 +3845,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="32">
         <v>0.04</v>
@@ -3877,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,24 +3888,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4074,7 +4075,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="41">
         <v>2.5000000000000001E-2</v>
@@ -4158,7 +4159,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,37 +4172,37 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -4209,10 +4210,10 @@
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4220,10 +4221,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>85</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -4231,10 +4232,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -4242,24 +4243,24 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -4268,10 +4269,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -4298,7 +4299,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,10 +4311,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,10 +4333,10 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,69 +4594,69 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -4663,7 +4664,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -4673,16 +4674,16 @@
     </row>
     <row r="11" spans="1:6" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
       <c r="F11" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4715,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,16 +4727,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,56 +4900,56 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -4956,10 +4957,10 @@
     </row>
     <row r="8" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5007,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,40 +5089,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5132,10 +5133,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5155,7 +5156,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,18 +5168,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,23 +5190,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="357" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5219,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5232,21 +5233,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5254,10 +5255,10 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,7 +5483,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" s="36">
         <v>1.2500000000000001E-2</v>
@@ -5516,30 +5517,30 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>175</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" s="44">
         <v>40360</v>
@@ -5562,7 +5563,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" s="44">
         <v>40725</v>
@@ -5585,7 +5586,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6" s="44">
         <v>40725</v>
@@ -5608,7 +5609,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B7" s="44">
         <v>40725</v>
@@ -5631,7 +5632,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" s="44">
         <v>41091</v>
@@ -5654,7 +5655,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" s="44">
         <v>41456</v>
@@ -5677,7 +5678,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10" s="44">
         <v>41821</v>
@@ -5700,7 +5701,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11" s="44">
         <v>42186</v>
@@ -5723,7 +5724,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" s="44">
         <v>42186</v>
@@ -5746,7 +5747,7 @@
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" s="45">
         <v>939758</v>
@@ -5824,8 +5825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5838,57 +5839,57 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -5896,24 +5897,24 @@
     </row>
     <row r="6" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
@@ -5921,27 +5922,27 @@
     </row>
     <row r="10" spans="1:6" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="E10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,23 +5999,23 @@
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6048,56 +6049,56 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="Assumptions" sheetId="3" r:id="rId4"/>
     <sheet name="SalaryGrowth" sheetId="11" r:id="rId5"/>
     <sheet name="Init_amort" sheetId="18" r:id="rId6"/>
-    <sheet name="Demo_sum" sheetId="2" r:id="rId7"/>
-    <sheet name="Ret_sum" sheetId="12" r:id="rId8"/>
-    <sheet name="Ret_dec" sheetId="9" r:id="rId9"/>
-    <sheet name="Ret_cashout" sheetId="14" r:id="rId10"/>
-    <sheet name="Ret_bfactor" sheetId="13" r:id="rId11"/>
-    <sheet name="Term_sum" sheetId="15" r:id="rId12"/>
-    <sheet name="Term_dec" sheetId="8" r:id="rId13"/>
-    <sheet name="Disb_sum" sheetId="16" r:id="rId14"/>
-    <sheet name="Disb_dec" sheetId="10" r:id="rId15"/>
-    <sheet name="Death_sum" sheetId="17" r:id="rId16"/>
-    <sheet name="Death_dec" sheetId="5" r:id="rId17"/>
+    <sheet name="External_Funds" sheetId="19" r:id="rId7"/>
+    <sheet name="Demo_sum" sheetId="2" r:id="rId8"/>
+    <sheet name="Ret_sum" sheetId="12" r:id="rId9"/>
+    <sheet name="Ret_dec" sheetId="9" r:id="rId10"/>
+    <sheet name="Ret_cashout" sheetId="14" r:id="rId11"/>
+    <sheet name="Ret_bfactor" sheetId="13" r:id="rId12"/>
+    <sheet name="Term_sum" sheetId="15" r:id="rId13"/>
+    <sheet name="Term_dec" sheetId="8" r:id="rId14"/>
+    <sheet name="Disb_sum" sheetId="16" r:id="rId15"/>
+    <sheet name="Disb_dec" sheetId="10" r:id="rId16"/>
+    <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
+    <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3614,6 +3615,678 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>52</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>57</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="33">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F13" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>59</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="F15" s="33">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>62</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="B18" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>64</v>
+      </c>
+      <c r="B19" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>65</v>
+      </c>
+      <c r="B20" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>66</v>
+      </c>
+      <c r="B21" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>67</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>68</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>69</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>71</v>
+      </c>
+      <c r="B26" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>72</v>
+      </c>
+      <c r="B27" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>73</v>
+      </c>
+      <c r="B28" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>74</v>
+      </c>
+      <c r="B29" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>75</v>
+      </c>
+      <c r="B30" s="33">
+        <v>1</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33">
+        <v>1</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -4154,7 +4827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4294,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4576,7 +5249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4699,7 +5372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4882,7 +5555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4975,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5507,7 +6180,7 @@
   <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5763,6 +6436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
@@ -5821,11 +6508,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -6032,676 +6719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>51</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>52</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>53</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>54</v>
-      </c>
-      <c r="B9" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>55</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>56</v>
-      </c>
-      <c r="B11" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="C11" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>57</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="33">
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>58</v>
-      </c>
-      <c r="B13" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="C13" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E13" s="33">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F13" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>59</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="C14" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="C15" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="F15" s="33">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>61</v>
-      </c>
-      <c r="B16" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.16</v>
-      </c>
-      <c r="E16" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.06</v>
-      </c>
-      <c r="G16" s="33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>62</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.18</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.09</v>
-      </c>
-      <c r="G17" s="33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>63</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.18</v>
-      </c>
-      <c r="E18" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>64</v>
-      </c>
-      <c r="B19" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>65</v>
-      </c>
-      <c r="B20" s="33">
-        <v>0.09</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>66</v>
-      </c>
-      <c r="B21" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="33">
-        <v>0.13</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0.22</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>67</v>
-      </c>
-      <c r="B22" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="C22" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="D22" s="33">
-        <v>0.22</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>68</v>
-      </c>
-      <c r="B23" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="C23" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0.22</v>
-      </c>
-      <c r="E23" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>69</v>
-      </c>
-      <c r="B24" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="C24" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="D24" s="33">
-        <v>0.22</v>
-      </c>
-      <c r="E24" s="33">
-        <v>0.22</v>
-      </c>
-      <c r="F24" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>70</v>
-      </c>
-      <c r="B25" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="C25" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="D25" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E25" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="G25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>71</v>
-      </c>
-      <c r="B26" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="C26" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="D26" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="G26" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>72</v>
-      </c>
-      <c r="B27" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="C27" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="D27" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="G27" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>73</v>
-      </c>
-      <c r="B28" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="C28" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>74</v>
-      </c>
-      <c r="B29" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="C29" s="33">
-        <v>0.12</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>75</v>
-      </c>
-      <c r="B30" s="33">
-        <v>1</v>
-      </c>
-      <c r="C30" s="33">
-        <v>1</v>
-      </c>
-      <c r="D30" s="33">
-        <v>1</v>
-      </c>
-      <c r="E30" s="33">
-        <v>1</v>
-      </c>
-      <c r="F30" s="33">
-        <v>1</v>
-      </c>
-      <c r="G30" s="33">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Data/PlanInfo-UCRP.xlsx
+++ b/Data/PlanInfo-UCRP.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Assumptions" sheetId="3" r:id="rId4"/>
     <sheet name="SalaryGrowth" sheetId="11" r:id="rId5"/>
     <sheet name="Init_amort" sheetId="18" r:id="rId6"/>
-    <sheet name="External_Funds" sheetId="19" r:id="rId7"/>
+    <sheet name="External_Fund" sheetId="19" r:id="rId7"/>
     <sheet name="Demo_sum" sheetId="2" r:id="rId8"/>
     <sheet name="Ret_sum" sheetId="12" r:id="rId9"/>
     <sheet name="Ret_dec" sheetId="9" r:id="rId10"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="188">
   <si>
     <t>ppd_id</t>
   </si>
@@ -1980,14 +1980,21 @@
       <t xml:space="preserve">deferred vested members are assumed to retire at age 60. </t>
     </r>
   </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>STIP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2107,7 +2114,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,6 +2228,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4844,12 +4852,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
@@ -4874,56 +4882,56 @@
       <c r="A3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="10" t="s">
         <v>86</v>
       </c>
@@ -4932,24 +4940,24 @@
       <c r="A12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5266,12 +5274,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
@@ -5299,10 +5307,10 @@
       <c r="B3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="11" t="s">
         <v>93</v>
       </c>
@@ -5314,12 +5322,12 @@
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="25" t="s">
         <v>95</v>
       </c>
@@ -5328,33 +5336,33 @@
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="23" t="s">
         <v>97</v>
       </c>
@@ -5572,12 +5580,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
@@ -5607,12 +5615,12 @@
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="25" t="s">
         <v>101</v>
       </c>
@@ -5621,12 +5629,12 @@
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -6437,14 +6445,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="47">
+        <v>564000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="47">
+        <v>478000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="47">
+        <v>401000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6525,12 +6570,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
@@ -6561,12 +6606,12 @@
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="14" t="s">
         <v>74</v>
       </c>
@@ -6575,23 +6620,23 @@
       <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="5" t="s">
         <v>63</v>
       </c>
@@ -6600,12 +6645,12 @@
       <c r="A8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
